--- a/Новая таблица (1).xlsx
+++ b/Новая таблица (1).xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\IT\group_26a\git_group_26\ToDoList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D9A9CA-98C0-464C-9CE7-CA024AB38D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2532" yWindow="2028" windowWidth="17124" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Smoke testing" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Regression testing" sheetId="2" r:id="rId5"/>
+    <sheet name="Smoke testing" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression testing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>№</t>
   </si>
@@ -147,27 +156,51 @@
   </si>
   <si>
     <t>Приложение удалено(все файлы и т.д) и успешно установлено без ошибок</t>
+  </si>
+  <si>
+    <t>Функциональное тестирование</t>
+  </si>
+  <si>
+    <t>Проверка создания списка кнопка New list</t>
+  </si>
+  <si>
+    <t>Проверка создания списка кнопка +</t>
+  </si>
+  <si>
+    <t>Проверка By not done</t>
+  </si>
+  <si>
+    <t>Проверка сортировки списка по алфавиту A to Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -176,7 +209,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -191,52 +224,76 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -426,25 +483,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.75"/>
-    <col customWidth="1" min="2" max="2" width="45.0"/>
-    <col customWidth="1" min="3" max="3" width="73.13"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,9 +518,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -472,9 +532,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -486,9 +546,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -500,9 +560,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -514,9 +574,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -528,9 +588,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -542,9 +602,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -556,9 +616,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -570,9 +630,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
@@ -584,9 +644,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -599,26 +659,29 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.75"/>
-    <col customWidth="1" min="2" max="2" width="38.38"/>
-    <col customWidth="1" min="3" max="3" width="28.13"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,146 +695,184 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A17:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Новая таблица (1).xlsx
+++ b/Новая таблица (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\IT\group_26a\git_group_26\ToDoList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D9A9CA-98C0-464C-9CE7-CA024AB38D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9584F610-1AC5-49F5-8291-0EA0C6031DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="2028" windowWidth="17124" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke testing" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>№</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Проверка сортировки списка по алфавиту A to Z</t>
+  </si>
+  <si>
+    <t>Проверить создание списка через основное меню через кнопку "New list"</t>
+  </si>
+  <si>
+    <t>Список задач создан</t>
   </si>
 </sst>
 </file>
@@ -224,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -247,11 +253,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -274,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +691,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -681,7 +701,7 @@
     <col min="3" max="3" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -706,7 +726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -717,7 +737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -728,7 +748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -739,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -750,7 +770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>31</v>
@@ -759,7 +779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -768,7 +788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>33</v>
@@ -777,7 +797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>35</v>
@@ -786,7 +806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
@@ -794,7 +814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -802,7 +822,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -810,7 +830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
@@ -818,7 +838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
@@ -865,8 +885,13 @@
       </c>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
+    <row r="22" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
